--- a/template/standard.xlsx
+++ b/template/standard.xlsx
@@ -156,7 +156,7 @@
     <t>{roweach $Table-&gt;Columns}{$No}</t>
   </si>
   <si>
-    <t>{$Type}</t>
+    <t>{$Type-&gt;getName()}</t>
   </si>
   <si>
     <t>{($NotNull?"NotNull ":"").$Unique}</t>
@@ -316,7 +316,7 @@
       <name val="ＭＳ ゴシック"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,9 +325,6 @@
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -387,152 +384,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="3" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="3" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="49" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="3" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="3" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="49" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,7 +826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -884,12 +881,12 @@
       <c r="H2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:13" customHeight="1" ht="15">
       <c r="A3" s="8" t="s">
@@ -901,27 +898,27 @@
       <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
       <c r="M3" s="7" t="s">
         <v>19</v>
       </c>
@@ -938,18 +935,18 @@
       <c r="B6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:13" customHeight="1" ht="15">
       <c r="A7" s="8" t="s">
@@ -958,18 +955,18 @@
       <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -981,7 +978,7 @@
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="65" fitToHeight="0" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="65" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
@@ -994,7 +991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1002,7 +999,7 @@
   <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="8.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1033,98 +1030,98 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:22" customHeight="1" ht="15">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="39" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:22" customHeight="1" ht="15">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="39" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:22" customHeight="1" ht="15">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="39" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:22" customHeight="1" ht="15">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:22" customHeight="1" ht="15">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="39" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:22" customHeight="1" ht="15">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="45" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
@@ -1140,16 +1137,16 @@
       <c r="A10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="36" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="13" t="s">
         <v>39</v>
       </c>
@@ -1171,30 +1168,30 @@
       <c r="N10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="36" t="s">
+      <c r="O10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="25"/>
     </row>
     <row r="11" spans="1:22" customHeight="1" ht="15">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="39" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="9" t="s">
         <v>46</v>
       </c>
@@ -1216,15 +1213,15 @@
       <c r="N11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O11" s="39" t="s">
+      <c r="O11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="25"/>
       <c r="V11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1241,17 +1238,17 @@
       <c r="A14" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="36" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="14" t="s">
         <v>56</v>
       </c>
@@ -1261,17 +1258,17 @@
       <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="31" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="32"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="10" t="s">
         <v>59</v>
       </c>
@@ -1289,25 +1286,25 @@
       <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="36" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="36" t="s">
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="36" t="s">
+      <c r="I18" s="30"/>
+      <c r="J18" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="38"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
       <c r="M18" s="14" t="s">
         <v>64</v>
       </c>
@@ -1319,25 +1316,25 @@
       <c r="A19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="39" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42" t="s">
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="39" t="s">
+      <c r="I19" s="42"/>
+      <c r="J19" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="40"/>
-      <c r="L19" s="41"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
       <c r="M19" s="10" t="s">
         <v>69</v>
       </c>
@@ -1357,25 +1354,25 @@
       <c r="A22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="36" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="36" t="s">
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="36" t="s">
+      <c r="I22" s="30"/>
+      <c r="J22" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="30"/>
       <c r="M22" s="14" t="s">
         <v>64</v>
       </c>
@@ -1387,25 +1384,25 @@
       <c r="A23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="39" t="s">
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42" t="s">
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="39" t="s">
+      <c r="I23" s="42"/>
+      <c r="J23" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="40"/>
-      <c r="L23" s="41"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="32"/>
       <c r="M23" s="10" t="s">
         <v>69</v>
       </c>
@@ -1425,49 +1422,49 @@
       <c r="A26" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28" t="s">
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30" t="s">
+      <c r="F26" s="44"/>
+      <c r="G26" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="29"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="1:22" customHeight="1" ht="15">
       <c r="A27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="31" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33" t="s">
+      <c r="F27" s="40"/>
+      <c r="G27" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="35"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="48"/>
       <c r="O27" s="4" t="s">
         <v>19</v>
       </c>
@@ -1475,6 +1472,34 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
     <mergeCell ref="O11:U11"/>
     <mergeCell ref="O10:U10"/>
     <mergeCell ref="E18:G18"/>
@@ -1491,38 +1516,10 @@
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="J19:L19"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:N26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:N27"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="43" fitToHeight="0" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="43" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
